--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.031020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.031020.xlsx_with_dialog_acts.xlsx
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2907,12 +2907,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3877,12 +3877,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4297,12 +4297,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4633,12 +4633,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4675,12 +4675,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4969,12 +4969,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5095,12 +5095,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5477,12 +5477,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5645,12 +5645,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6149,12 +6149,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6863,12 +6863,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7115,12 +7115,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7913,12 +7913,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7959,12 +7959,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8209,12 +8209,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8587,12 +8587,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8839,12 +8839,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8881,12 +8881,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9553,12 +9553,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9637,12 +9637,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9931,12 +9931,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10561,12 +10561,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10603,12 +10603,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11569,12 +11569,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11821,12 +11821,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12535,12 +12535,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13081,12 +13081,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13169,12 +13169,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14509,12 +14509,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14593,12 +14593,12 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15013,12 +15013,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15263,12 +15263,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15305,12 +15305,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -15347,12 +15347,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15389,12 +15389,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15725,12 +15725,12 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16439,12 +16439,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16523,12 +16523,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -16733,12 +16733,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16775,12 +16775,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17321,12 +17321,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17405,12 +17405,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17531,12 +17531,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17615,12 +17615,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17783,12 +17783,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18161,12 +18161,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18203,12 +18203,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18581,12 +18581,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18663,12 +18663,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18745,12 +18745,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19043,12 +19043,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19169,12 +19169,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19505,12 +19505,12 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19547,12 +19547,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19933,12 +19933,12 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20057,12 +20057,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20309,12 +20309,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20685,12 +20685,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20811,12 +20811,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21063,12 +21063,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21189,12 +21189,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22071,12 +22071,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22407,12 +22407,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23247,12 +23247,12 @@
       <c r="H543" t="inlineStr"/>
       <c r="I543" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23413,12 +23413,12 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23581,12 +23581,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23833,12 +23833,12 @@
       <c r="H557" t="inlineStr"/>
       <c r="I557" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23875,12 +23875,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23959,12 +23959,12 @@
       <c r="H560" t="inlineStr"/>
       <c r="I560" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24421,12 +24421,12 @@
       <c r="H571" t="inlineStr"/>
       <c r="I571" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24673,12 +24673,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24757,12 +24757,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25051,12 +25051,12 @@
       <c r="H586" t="inlineStr"/>
       <c r="I586" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
